--- a/GameData.xlsx
+++ b/GameData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20927"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C3E3E7-6B64-4605-839D-E5A4AA0566EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855B7D67-BBF8-4012-B9AE-C990A498BF9C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -820,10 +820,10 @@
         <v>0.6</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1">
         <v>1.5</v>
@@ -857,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G21" s="1">
         <v>0.7</v>
@@ -882,20 +882,40 @@
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G22"/>
+      <c r="B22" s="1">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -904,10 +924,10 @@
         <v>0.8</v>
       </c>
       <c r="G23" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H23" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -915,13 +935,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -930,10 +950,10 @@
         <v>0.9</v>
       </c>
       <c r="G24" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -947,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -967,7 +987,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>

--- a/GameData.xlsx
+++ b/GameData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20927"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855B7D67-BBF8-4012-B9AE-C990A498BF9C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E599D-667C-43C7-99DA-0144C586E22D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>升级价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,9 +101,6 @@
     <t>enemy_7</t>
   </si>
   <si>
-    <t>enemy_9</t>
-  </si>
-  <si>
     <t>enemy_10</t>
   </si>
   <si>
@@ -124,6 +121,14 @@
   </si>
   <si>
     <t>enemy_Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +500,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -788,16 +793,16 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -984,7 +989,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>20</v>
@@ -1010,14 +1015,36 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>150</v>
+      </c>
+      <c r="C27" s="1">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>

--- a/GameData.xlsx
+++ b/GameData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20927"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E599D-667C-43C7-99DA-0144C586E22D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895E2DD-BEF8-4ED1-B22B-D01254921EAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -940,13 +940,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
